--- a/words_6_chars.xlsx
+++ b/words_6_chars.xlsx
@@ -1,37 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85167DC-CE23-41CD-954E-EA8A541C21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-20736" yWindow="1716" windowWidth="20736" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>さいけいせい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +76,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,32 +400,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>単語</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>意味</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/words_6_chars.xlsx
+++ b/words_6_chars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85167DC-CE23-41CD-954E-EA8A541C21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620A58E-EC04-4CEB-AE12-2C9AF470BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20736" yWindow="1716" windowWidth="20736" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/words_6_chars.xlsx
+++ b/words_6_chars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7024d8b65f2563e3/デスクトップ/雑魚/言葉データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620A58E-EC04-4CEB-AE12-2C9AF470BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A620A58E-EC04-4CEB-AE12-2C9AF470BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD50D84-6A39-4717-8419-DCAEAAB9258B}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>単語</t>
   </si>
@@ -29,14 +29,21 @@
   </si>
   <si>
     <t>さいけいせい</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再形成</t>
+    <rPh sb="0" eb="3">
+      <t>サイケイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,18 +52,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -404,29 +418,33 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/words_6_chars.xlsx
+++ b/words_6_chars.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7024d8b65f2563e3/デスクトップ/雑魚/言葉データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A620A58E-EC04-4CEB-AE12-2C9AF470BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD50D84-6A39-4717-8419-DCAEAAB9258B}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{A620A58E-EC04-4CEB-AE12-2C9AF470BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6C4E82-D38C-47FC-88AB-FEDABFCEA773}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$10</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>単語</t>
   </si>
@@ -38,12 +54,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <t>きょうかしょ</t>
+  </si>
+  <si>
+    <t>教科書</t>
+  </si>
+  <si>
+    <t>さいしゅうび</t>
+  </si>
+  <si>
+    <t>最終日</t>
+  </si>
+  <si>
+    <t>さくらんぼう</t>
+  </si>
+  <si>
+    <t>桜ん坊</t>
+  </si>
+  <si>
+    <t>しんぱいごと</t>
+  </si>
+  <si>
+    <t>心配事</t>
+  </si>
+  <si>
+    <t>にんじゃがく</t>
+  </si>
+  <si>
+    <t>忍者学</t>
+  </si>
+  <si>
+    <t>ほうせきばこ</t>
+  </si>
+  <si>
+    <t>宝石箱</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +121,14 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -107,11 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,35 +481,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>A2&amp;B2</f>
+        <v>いただきますいただきます</v>
+      </c>
+      <c r="D2" s="3">
+        <f>LEN(A2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>A3&amp;B3</f>
+        <v>きょうかしょ教科書</v>
+      </c>
+      <c r="D3" s="3">
+        <f>LEN(A3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="3" t="str">
+        <f>A4&amp;B4</f>
+        <v>さいけいせい再形成</v>
+      </c>
+      <c r="D4" s="3">
+        <f>LEN(A4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>A5&amp;B5</f>
+        <v>さいしゅうび最終日</v>
+      </c>
+      <c r="D5" s="3">
+        <f>LEN(A5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>A6&amp;B6</f>
+        <v>さくらんぼう桜ん坊</v>
+      </c>
+      <c r="D6" s="3">
+        <f>LEN(A6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>A7&amp;B7</f>
+        <v>しんぱいごと心配事</v>
+      </c>
+      <c r="D7" s="3">
+        <f>LEN(A7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>A8&amp;B8</f>
+        <v>にんじゃがく忍者学</v>
+      </c>
+      <c r="D8" s="3">
+        <f>LEN(A8)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.6">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>A9&amp;B9</f>
+        <v>ほうせきばこ宝石箱</v>
+      </c>
+      <c r="D9" s="3">
+        <f>LEN(A9)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
